--- a/最適値推移.xlsx
+++ b/最適値推移.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanawayuki/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanawayuki/Documents/研究室/2024competition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E9FC88-03AF-234E-80B8-5649DE738134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A84386-96F3-0B46-9A47-B6491BE9F626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12500" yWindow="1740" windowWidth="28300" windowHeight="17360" xr2:uid="{C78A74BF-3F3D-5544-9BB7-628F36F9BE25}"/>
+    <workbookView xWindow="16660" yWindow="9040" windowWidth="28300" windowHeight="17360" xr2:uid="{C78A74BF-3F3D-5544-9BB7-628F36F9BE25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>世代数</t>
     <rPh sb="0" eb="3">
@@ -54,6 +54,14 @@
   </si>
   <si>
     <t>トーナメント１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トーナメント(re)1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トーナメント（re)2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -100,9 +108,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,6 +1081,330 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>トーナメント(re)1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4396-7546-A49E-A6A0EA0B4F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>トーナメント（re)2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4396-7546-A49E-A6A0EA0B4F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1211,7 +1546,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2423,16 +2758,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2777,15 +3112,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123FE398-B03A-7942-A253-D573ACDE9400}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2798,8 +3133,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2812,8 +3153,14 @@
       <c r="D2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2826,8 +3173,14 @@
       <c r="D3">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2840,8 +3193,14 @@
       <c r="D4">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2854,8 +3213,14 @@
       <c r="D5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2868,8 +3233,14 @@
       <c r="D6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2882,8 +3253,14 @@
       <c r="D7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2896,8 +3273,14 @@
       <c r="D8">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2910,8 +3293,14 @@
       <c r="D9">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2924,8 +3313,14 @@
       <c r="D10">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2938,8 +3333,14 @@
       <c r="D11">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2952,8 +3353,14 @@
       <c r="D12">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2966,8 +3373,14 @@
       <c r="D13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2980,8 +3393,14 @@
       <c r="D14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2994,8 +3413,14 @@
       <c r="D15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3008,8 +3433,14 @@
       <c r="D16">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3022,8 +3453,14 @@
       <c r="D17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3036,8 +3473,14 @@
       <c r="D18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3050,8 +3493,14 @@
       <c r="D19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3064,8 +3513,14 @@
       <c r="D20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3078,8 +3533,14 @@
       <c r="D21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3092,8 +3553,14 @@
       <c r="D22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3106,8 +3573,14 @@
       <c r="D23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3120,8 +3593,14 @@
       <c r="D24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3134,8 +3613,14 @@
       <c r="D25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="1">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3148,8 +3633,14 @@
       <c r="D26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3162,8 +3653,14 @@
       <c r="D27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="1">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3176,8 +3673,14 @@
       <c r="D28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="1">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3190,8 +3693,14 @@
       <c r="D29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="1">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3204,8 +3713,14 @@
       <c r="D30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="1">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3218,8 +3733,14 @@
       <c r="D31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="1">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3232,8 +3753,14 @@
       <c r="D32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="1">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3246,8 +3773,14 @@
       <c r="D33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="1">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3260,8 +3793,14 @@
       <c r="D34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="1">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3274,8 +3813,14 @@
       <c r="D35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="1">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3288,8 +3833,14 @@
       <c r="D36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="1">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3302,8 +3853,14 @@
       <c r="D37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="1">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3316,8 +3873,14 @@
       <c r="D38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="1">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3330,8 +3893,14 @@
       <c r="D39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="1">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3344,8 +3913,14 @@
       <c r="D40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="1">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3358,6 +3933,15 @@
       <c r="D41">
         <v>10</v>
       </c>
+      <c r="E41" s="1">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="E42" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/最適値推移.xlsx
+++ b/最適値推移.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanawayuki/Documents/研究室/2024competition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A84386-96F3-0B46-9A47-B6491BE9F626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8D93C9-3E1B-DF40-B90F-858BD6BE40CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16660" yWindow="9040" windowWidth="28300" windowHeight="17360" xr2:uid="{C78A74BF-3F3D-5544-9BB7-628F36F9BE25}"/>
+    <workbookView xWindow="19800" yWindow="3460" windowWidth="28300" windowHeight="17360" xr2:uid="{C78A74BF-3F3D-5544-9BB7-628F36F9BE25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>世代数</t>
     <rPh sb="0" eb="3">
@@ -57,11 +57,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トーナメント(re)1</t>
+    <t>トーナメント(re_3)1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トーナメント（re)2</t>
+    <t>トーナメント（re_3)2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トーナメント(re_4)1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トーナメント(re_4)2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -340,419 +348,6 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9F9D-7E4F-ADCE-00A101553DAE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1265868000"/>
-        <c:axId val="1265869712"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1265868000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1265869712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1265869712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1265868000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ランダム１</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8090-0C4E-B7E3-CDF6825E4A96}"/>
             </c:ext>
           </c:extLst>
@@ -1090,7 +685,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>トーナメント(re)1</c:v>
+                  <c:v>トーナメント(re_3)1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1252,7 +847,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>トーナメント（re)2</c:v>
+                  <c:v>トーナメント（re_3)2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1402,6 +997,332 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4396-7546-A49E-A6A0EA0B4F93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>トーナメント(re_4)1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D145-DD45-8F9E-F330A0F1C606}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>トーナメント(re_4)2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D145-DD45-8F9E-F330A0F1C606}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1607,46 +1528,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2202,572 +2083,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9003C8F5-2B4D-D88B-C2EE-A1783AD97469}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>908050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2786,7 +2115,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3112,15 +2441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123FE398-B03A-7942-A253-D573ACDE9400}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3139,8 +2468,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3159,8 +2494,14 @@
       <c r="F2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3179,8 +2520,14 @@
       <c r="F3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3199,8 +2546,14 @@
       <c r="F4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3219,8 +2572,14 @@
       <c r="F5">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3239,8 +2598,14 @@
       <c r="F6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3259,8 +2624,14 @@
       <c r="F7">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3279,8 +2650,14 @@
       <c r="F8">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3299,8 +2676,14 @@
       <c r="F9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3319,8 +2702,14 @@
       <c r="F10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3339,8 +2728,14 @@
       <c r="F11">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3359,8 +2754,14 @@
       <c r="F12">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3379,8 +2780,14 @@
       <c r="F13">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3399,8 +2806,14 @@
       <c r="F14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3419,8 +2832,14 @@
       <c r="F15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3439,8 +2858,14 @@
       <c r="F16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3459,8 +2884,14 @@
       <c r="F17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3479,8 +2910,14 @@
       <c r="F18">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3499,8 +2936,14 @@
       <c r="F19">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3519,8 +2962,14 @@
       <c r="F20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>12</v>
+      </c>
+      <c r="H20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3539,8 +2988,14 @@
       <c r="F21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3559,8 +3014,14 @@
       <c r="F22">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3579,8 +3040,14 @@
       <c r="F23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3599,8 +3066,14 @@
       <c r="F24">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3619,8 +3092,14 @@
       <c r="F25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3639,8 +3118,14 @@
       <c r="F26">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3659,8 +3144,14 @@
       <c r="F27">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3679,8 +3170,14 @@
       <c r="F28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3699,8 +3196,14 @@
       <c r="F29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3719,8 +3222,14 @@
       <c r="F30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3739,8 +3248,14 @@
       <c r="F31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3759,8 +3274,14 @@
       <c r="F32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3779,8 +3300,14 @@
       <c r="F33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3799,8 +3326,14 @@
       <c r="F34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3819,8 +3352,14 @@
       <c r="F35">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3839,8 +3378,14 @@
       <c r="F36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3859,8 +3404,14 @@
       <c r="F37">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3879,8 +3430,14 @@
       <c r="F38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3899,8 +3456,14 @@
       <c r="F39">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>11</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3919,8 +3482,14 @@
       <c r="F40">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3939,8 +3508,14 @@
       <c r="F41">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="E42" s="1"/>
     </row>
   </sheetData>

--- a/最適値推移.xlsx
+++ b/最適値推移.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanawayuki/Documents/研究室/2024competition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8D93C9-3E1B-DF40-B90F-858BD6BE40CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0254D7-581C-EE46-A2E2-130328A702EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19800" yWindow="3460" windowWidth="28300" windowHeight="17360" xr2:uid="{C78A74BF-3F3D-5544-9BB7-628F36F9BE25}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{C78A74BF-3F3D-5544-9BB7-628F36F9BE25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>世代数</t>
     <rPh sb="0" eb="3">
@@ -72,12 +73,16 @@
     <t>トーナメント(re_4)2</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>tournament_(re_4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +95,24 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -116,12 +139,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2089,14 +2118,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2443,7 +2472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123FE398-B03A-7942-A253-D573ACDE9400}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -3523,4 +3552,465 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF3B9E5-6A8B-2440-96DF-64BF02F6FAC0}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>32</v>
+      </c>
+      <c r="C37" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/最適値推移.xlsx
+++ b/最適値推移.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanawayuki/Documents/研究室/2024competition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0254D7-581C-EE46-A2E2-130328A702EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B0F392-6CAC-6449-9468-1464717B060D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{C78A74BF-3F3D-5544-9BB7-628F36F9BE25}"/>
+    <workbookView xWindow="2800" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{C78A74BF-3F3D-5544-9BB7-628F36F9BE25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>世代数</t>
     <rPh sb="0" eb="3">
@@ -74,7 +74,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tournament_(re_4)</t>
+    <t>tournament(re_4)2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tournament_(re_4)1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rondom1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rondom2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rondom3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1556,6 +1572,1067 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tournament_(re_4)1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1729-044A-9132-D8B47D47B9D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tournament(re_4)2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1729-044A-9132-D8B47D47B9D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rondom1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1729-044A-9132-D8B47D47B9D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rondom2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1729-044A-9132-D8B47D47B9D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rondom3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1729-044A-9132-D8B47D47B9D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1782662479"/>
+        <c:axId val="1783623727"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1782662479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1783623727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1783623727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1782662479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1596,7 +2673,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2153,6 +3786,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF223265-0414-0501-AEF4-9249003143BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2472,7 +4146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123FE398-B03A-7942-A253-D573ACDE9400}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -3556,20 +5230,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF3B9E5-6A8B-2440-96DF-64BF02F6FAC0}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3579,8 +5265,17 @@
       <c r="C2">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>47</v>
+      </c>
+      <c r="E2">
+        <v>51</v>
+      </c>
+      <c r="F2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3590,8 +5285,17 @@
       <c r="C3">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3601,8 +5305,17 @@
       <c r="C4">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>43</v>
+      </c>
+      <c r="E4">
+        <v>49</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3612,8 +5325,17 @@
       <c r="C5">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3623,8 +5345,17 @@
       <c r="C6">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3634,8 +5365,17 @@
       <c r="C7">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3645,8 +5385,17 @@
       <c r="C8">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3656,8 +5405,17 @@
       <c r="C9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3667,8 +5425,17 @@
       <c r="C10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3678,8 +5445,17 @@
       <c r="C11">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3689,8 +5465,17 @@
       <c r="C12">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>39</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3700,8 +5485,17 @@
       <c r="C13">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3711,8 +5505,17 @@
       <c r="C14">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3722,8 +5525,17 @@
       <c r="C15">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3733,8 +5545,17 @@
       <c r="C16" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3744,8 +5565,17 @@
       <c r="C17">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3755,8 +5585,17 @@
       <c r="C18" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3766,8 +5605,17 @@
       <c r="C19">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>31</v>
+      </c>
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3777,8 +5625,17 @@
       <c r="C20">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3788,8 +5645,17 @@
       <c r="C21">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3799,8 +5665,17 @@
       <c r="C22">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>31</v>
+      </c>
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3810,8 +5685,17 @@
       <c r="C23">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3821,8 +5705,17 @@
       <c r="C24" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3832,8 +5725,17 @@
       <c r="C25">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3843,8 +5745,17 @@
       <c r="C26">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3854,8 +5765,17 @@
       <c r="C27">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3865,8 +5785,17 @@
       <c r="C28" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3876,8 +5805,17 @@
       <c r="C29">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3887,8 +5825,17 @@
       <c r="C30" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3898,8 +5845,17 @@
       <c r="C31">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3909,8 +5865,17 @@
       <c r="C32">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>27</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3920,8 +5885,17 @@
       <c r="C33" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3931,8 +5905,17 @@
       <c r="C34">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>27</v>
+      </c>
+      <c r="F34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3942,8 +5925,17 @@
       <c r="C35">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>27</v>
+      </c>
+      <c r="F35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3953,8 +5945,17 @@
       <c r="C36">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <v>27</v>
+      </c>
+      <c r="F36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3964,8 +5965,17 @@
       <c r="C37" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>23</v>
+      </c>
+      <c r="E37">
+        <v>27</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3975,8 +5985,17 @@
       <c r="C38">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <v>27</v>
+      </c>
+      <c r="F38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3986,8 +6005,17 @@
       <c r="C39" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <v>27</v>
+      </c>
+      <c r="F39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3997,8 +6025,17 @@
       <c r="C40">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>23</v>
+      </c>
+      <c r="E40">
+        <v>27</v>
+      </c>
+      <c r="F40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4007,10 +6044,20 @@
       </c>
       <c r="C41">
         <v>29</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>23</v>
+      </c>
+      <c r="F41">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>